--- a/taiwan-rain-avg-chart-20160712/taiwan-rain-avg-chart-20160712.xlsx
+++ b/taiwan-rain-avg-chart-20160712/taiwan-rain-avg-chart-20160712.xlsx
@@ -17,36 +17,36 @@
     <t>place</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>label</t>
   </si>
   <si>
-    <t>key</t>
+    <t>amt</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>amt</t>
-  </si>
-  <si>
     <t>headline</t>
   </si>
   <si>
+    <t>Alishan</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
     <t>The Headline For This Column Chart</t>
   </si>
   <si>
-    <t>Alishan</t>
-  </si>
-  <si>
-    <t>Jan</t>
+    <t>2.822834646</t>
   </si>
   <si>
     <t>subhed</t>
   </si>
   <si>
-    <t>2.822834646</t>
-  </si>
-  <si>
     <t>This is default text in the copytext spreadsheet for this graphic. &lt;a href="https://docs.google.com/spreadsheets/d/{{ COPY_GOOGLE_DOC_KEY }}/edit" target="_blank"&gt;Edit this spreadsheet&lt;/a&gt; (created when you added the graphic) to update the data and text. Delete any rows you don't need, and add others as needed. Don't forget to &lt;code&gt;fab update_copy:{{ slug }}&lt;/code&gt; to update the text or visit &lt;a href="http://127.0.0.1:8000/graphics/{{ slug }}/?refresh=1" target="_top"&gt;&lt;code&gt;http://127.0.0.1:8000/graphics/{{ slug }}/?refresh=1&lt;/code&gt;&lt;/a&gt; to refresh the data every time you reload the page!</t>
   </si>
   <si>
@@ -68,49 +68,49 @@
     <t>0.929133858</t>
   </si>
   <si>
+    <t>footnote</t>
+  </si>
+  <si>
     <t>Tamsui</t>
   </si>
   <si>
     <t>4.090551181</t>
   </si>
   <si>
-    <t>footnote</t>
-  </si>
-  <si>
     <t>Dawu</t>
   </si>
   <si>
+    <t>1.661417323</t>
+  </si>
+  <si>
+    <t>Dongjidao</t>
+  </si>
+  <si>
+    <t>0.665354331</t>
+  </si>
+  <si>
     <t>source</t>
   </si>
   <si>
-    <t>1.661417323</t>
-  </si>
-  <si>
-    <t>Dongjidao</t>
+    <t>Hengchun</t>
+  </si>
+  <si>
+    <t>0.704724409</t>
+  </si>
+  <si>
+    <t>Hsinchu</t>
+  </si>
+  <si>
+    <t>2.539370079</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>0.665354331</t>
+    <t>Hualien</t>
   </si>
   <si>
     <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Hengchun</t>
-  </si>
-  <si>
-    <t>0.704724409</t>
-  </si>
-  <si>
-    <t>Hsinchu</t>
-  </si>
-  <si>
-    <t>2.539370079</t>
-  </si>
-  <si>
-    <t>Hualien</t>
   </si>
   <si>
     <t>2.448818898</t>
@@ -1070,46 +1070,41 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1119,15 +1114,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1139,42 +1137,42 @@
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1203,7 +1201,7 @@
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>11</v>
@@ -1235,7 +1233,7 @@
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -1265,7 +1263,7 @@
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -1295,10 +1293,10 @@
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1612,6 +1610,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1625,44 +1626,44 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1671,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>13</v>
@@ -1681,7 +1682,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>15</v>
@@ -1692,7 +1693,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>
@@ -1700,13 +1701,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1714,51 +1715,51 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>33</v>
@@ -1769,7 +1770,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>35</v>
@@ -1780,7 +1781,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>37</v>
@@ -1791,7 +1792,7 @@
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>39</v>
@@ -1802,7 +1803,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>41</v>
@@ -1813,7 +1814,7 @@
         <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>43</v>
@@ -1824,7 +1825,7 @@
         <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>45</v>
@@ -1835,7 +1836,7 @@
         <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>47</v>
@@ -1846,7 +1847,7 @@
         <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>49</v>
@@ -1857,7 +1858,7 @@
         <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>51</v>
@@ -1868,7 +1869,7 @@
         <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>53</v>
@@ -1879,7 +1880,7 @@
         <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>55</v>
@@ -1890,7 +1891,7 @@
         <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>57</v>
@@ -1901,7 +1902,7 @@
         <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>59</v>
@@ -1912,7 +1913,7 @@
         <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>61</v>
@@ -1923,7 +1924,7 @@
         <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>63</v>
@@ -1931,7 +1932,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>64</v>
@@ -1975,7 +1976,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>64</v>
@@ -1997,7 +1998,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>64</v>
@@ -2008,7 +2009,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>64</v>
@@ -2019,7 +2020,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>64</v>
@@ -2030,7 +2031,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>64</v>
@@ -2206,7 +2207,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>89</v>
@@ -2250,7 +2251,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>89</v>
@@ -2272,7 +2273,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>89</v>
@@ -2283,7 +2284,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>89</v>
@@ -2294,7 +2295,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>89</v>
@@ -2305,7 +2306,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>89</v>
@@ -2481,7 +2482,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>115</v>
@@ -2525,7 +2526,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>115</v>
@@ -2547,7 +2548,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>115</v>
@@ -2558,7 +2559,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>115</v>
@@ -2569,7 +2570,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>115</v>
@@ -2580,7 +2581,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>115</v>
@@ -2756,7 +2757,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>140</v>
@@ -2800,7 +2801,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>140</v>
@@ -2822,7 +2823,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>140</v>
@@ -2833,7 +2834,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>140</v>
@@ -2844,7 +2845,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>140</v>
@@ -2855,7 +2856,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>140</v>
@@ -3031,7 +3032,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>166</v>
@@ -3075,7 +3076,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>166</v>
@@ -3097,7 +3098,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>166</v>
@@ -3108,7 +3109,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>166</v>
@@ -3119,7 +3120,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>166</v>
@@ -3130,7 +3131,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>166</v>
@@ -3306,7 +3307,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>192</v>
@@ -3350,7 +3351,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>192</v>
@@ -3372,7 +3373,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>192</v>
@@ -3383,7 +3384,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>192</v>
@@ -3394,7 +3395,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>192</v>
@@ -3405,7 +3406,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>192</v>
@@ -3581,7 +3582,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>218</v>
@@ -3625,7 +3626,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>218</v>
@@ -3647,7 +3648,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>218</v>
@@ -3658,7 +3659,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>218</v>
@@ -3669,7 +3670,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>218</v>
@@ -3680,7 +3681,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>218</v>
@@ -3856,7 +3857,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>242</v>
@@ -3900,7 +3901,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>242</v>
@@ -3922,7 +3923,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>242</v>
@@ -3933,7 +3934,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>242</v>
@@ -3944,7 +3945,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>242</v>
@@ -3955,7 +3956,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>242</v>
@@ -4131,7 +4132,7 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>267</v>
@@ -4175,7 +4176,7 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>267</v>
@@ -4197,7 +4198,7 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>267</v>
@@ -4208,7 +4209,7 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>267</v>
@@ -4219,7 +4220,7 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>267</v>
@@ -4230,7 +4231,7 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>267</v>
@@ -4406,7 +4407,7 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>291</v>
@@ -4450,7 +4451,7 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>291</v>
@@ -4472,7 +4473,7 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>291</v>
@@ -4483,7 +4484,7 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>291</v>
@@ -4494,7 +4495,7 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>291</v>
@@ -4505,7 +4506,7 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>291</v>
@@ -4681,7 +4682,7 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>315</v>
@@ -4725,7 +4726,7 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>315</v>
@@ -4747,7 +4748,7 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>315</v>
@@ -4758,7 +4759,7 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>315</v>
@@ -4769,7 +4770,7 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>315</v>
@@ -4780,7 +4781,7 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>315</v>
